--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="285" yWindow="240" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -207,15 +207,9 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>death_registration</t>
   </si>
   <si>
-    <t>Death registration</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -337,15 +331,121 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>ExtId do Individuo</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Data da morte</t>
+  </si>
+  <si>
+    <t>A causa da morte foi diagnosticada pelas autoridades de saúde?</t>
+  </si>
+  <si>
+    <t>Quem diagnosticou?</t>
+  </si>
+  <si>
+    <t>Causa da morte diagnosticadas?</t>
+  </si>
+  <si>
+    <t>Causa da morte não diagnosticadas?</t>
+  </si>
+  <si>
+    <t>Local da morte</t>
+  </si>
+  <si>
+    <t>Introduza o Local da morte</t>
+  </si>
+  <si>
+    <t>Causa da morte</t>
+  </si>
+  <si>
+    <t>permId</t>
+  </si>
+  <si>
+    <t>Perm Id do Individuo</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat("Obito_", ${permId})</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Em casa</t>
+  </si>
+  <si>
+    <t>Centro Médico ou clinica</t>
+  </si>
+  <si>
+    <t>Em casa do medico tradicional</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>Enfermeiro</t>
+  </si>
+  <si>
+    <t>Agente comunitário de saúde</t>
+  </si>
+  <si>
+    <t>Médico tradicional</t>
+  </si>
+  <si>
+    <t>Outra infecção viral/bacterial</t>
+  </si>
+  <si>
+    <t>Acidente</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>Doença</t>
+  </si>
+  <si>
+    <t>Registo de Óbito</t>
+  </si>
+  <si>
+    <t>Id da Visita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -435,411 +535,412 @@
   </borders>
   <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1525,33 +1626,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="26.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,144 +1661,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4" t="b">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4" t="b">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4" t="b">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="b">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="N6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1704,280 +1818,330 @@
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="4" t="b">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="I10" s="4" t="b">
+      <c r="H10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="24">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="I11" s="4" t="b">
+      <c r="H11" s="2"/>
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="I12" s="4" t="b">
+      <c r="H12" s="2"/>
+      <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24">
       <c r="A13" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="4" t="b">
+      <c r="H13" s="2"/>
+      <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="24">
       <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="I14" s="4" t="b">
+      <c r="H14" s="2"/>
+      <c r="J14" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="24">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="4" t="b">
+      <c r="H15" s="2"/>
+      <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>102</v>
+    </row>
+    <row r="16" spans="1:18" ht="24" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="K16" s="5" t="s">
+      <c r="H16" s="2"/>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="36">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="L17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="5" t="b">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1985,8 +2149,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1994,8 +2159,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2003,8 +2169,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2012,9 +2179,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2022,9 +2189,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2032,9 +2200,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2042,8 +2211,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2051,64 +2222,75 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2117,37 +2299,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="14"/>
+    <col min="3" max="3" width="30.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
@@ -2155,13 +2341,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
         <v>33</v>
       </c>
@@ -2169,13 +2358,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -2183,13 +2375,16 @@
         <v>47</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2197,41 +2392,50 @@
         <v>48</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
@@ -2239,488 +2443,582 @@
         <v>49</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="17">
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="B16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="B17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="D18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="17" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="C22" s="17" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" s="15" customFormat="1">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="15"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="15"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="15"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="15"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="15"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2729,16 +3027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -2748,16 +3052,22 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="240" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="7185" windowWidth="20550" windowHeight="930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Amefia wapi/Kifo kilitokea wapi kwingine taja?</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -159,15 +156,6 @@
     <t>select_one placeOfDeath</t>
   </si>
   <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>HOSPITAL</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>selected(${placeOfDeath}, 'OTHER')</t>
-  </si>
-  <si>
     <t>Mirth</t>
   </si>
   <si>
@@ -210,39 +195,12 @@
     <t>death_registration</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Health Centre or Clinic</t>
   </si>
   <si>
-    <t>HEALTH_CENTER</t>
-  </si>
-  <si>
     <t>Traditional healer's home</t>
   </si>
   <si>
-    <t>TRAD_HEALER</t>
-  </si>
-  <si>
-    <t>diagnoseddeath</t>
-  </si>
-  <si>
-    <t>Death Cause diagnosed by health authority?</t>
-  </si>
-  <si>
-    <t>select_one bywho</t>
-  </si>
-  <si>
-    <t>whom</t>
-  </si>
-  <si>
-    <t>by whom?</t>
-  </si>
-  <si>
-    <t>selected(${diagnoseddeath}, '1')</t>
-  </si>
-  <si>
     <t>bywho</t>
   </si>
   <si>
@@ -258,18 +216,9 @@
     <t>Traditional healer</t>
   </si>
   <si>
-    <t>causeofdeathdiagnosed</t>
-  </si>
-  <si>
-    <t>Cause of death?</t>
-  </si>
-  <si>
     <t>Malaria</t>
   </si>
   <si>
-    <t>select_one causediagnosed</t>
-  </si>
-  <si>
     <t>causediagnosed</t>
   </si>
   <si>
@@ -294,15 +243,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>select_one causenotdiagnosed</t>
-  </si>
-  <si>
-    <t>causofdeathnotdiagnosed</t>
-  </si>
-  <si>
-    <t>selected(${diagnoseddeath}, '2')</t>
-  </si>
-  <si>
     <t>causenotdiagnosed</t>
   </si>
   <si>
@@ -324,12 +264,6 @@
     <t>Cause of death</t>
   </si>
   <si>
-    <t>concat(${causeofdeathdiagnosed},${causofdeathnotdiagnosed})</t>
-  </si>
-  <si>
-    <t>. &lt; today()</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -345,18 +279,6 @@
     <t>Data da morte</t>
   </si>
   <si>
-    <t>A causa da morte foi diagnosticada pelas autoridades de saúde?</t>
-  </si>
-  <si>
-    <t>Quem diagnosticou?</t>
-  </si>
-  <si>
-    <t>Causa da morte diagnosticadas?</t>
-  </si>
-  <si>
-    <t>Causa da morte não diagnosticadas?</t>
-  </si>
-  <si>
     <t>Local da morte</t>
   </si>
   <si>
@@ -390,12 +312,6 @@
     <t>Em casa</t>
   </si>
   <si>
-    <t>Centro Médico ou clinica</t>
-  </si>
-  <si>
-    <t>Em casa do medico tradicional</t>
-  </si>
-  <si>
     <t>Outro</t>
   </si>
   <si>
@@ -430,6 +346,102 @@
   </si>
   <si>
     <t>Id da Visita</t>
+  </si>
+  <si>
+    <t>A Caminho do hospital</t>
+  </si>
+  <si>
+    <t>No lugar do acidente</t>
+  </si>
+  <si>
+    <t>Outro lugar</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>selected(${placeOfDeath}, '5')</t>
+  </si>
+  <si>
+    <t>select_one causes_of_death</t>
+  </si>
+  <si>
+    <t>causes_of_death</t>
+  </si>
+  <si>
+    <t>Acidente de Trabalho</t>
+  </si>
+  <si>
+    <t>Acidente Rodoviário</t>
+  </si>
+  <si>
+    <t>Homocidio</t>
+  </si>
+  <si>
+    <t>Suicídio</t>
+  </si>
+  <si>
+    <t>Idade avançada</t>
+  </si>
+  <si>
+    <t>Prematuridade/Malformação congénita</t>
+  </si>
+  <si>
+    <t>Causas ligada a gravidez</t>
+  </si>
+  <si>
+    <t>Nao sabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Se morreu de doença, tem ideia de que doença ele/a sofria? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Tem ideia de que doença ele/a sofria? </t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>select_one diseases</t>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
+    <t>Malária</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Diarreia</t>
+  </si>
+  <si>
+    <t>Tuberculose</t>
+  </si>
+  <si>
+    <t>Outras doenças</t>
+  </si>
+  <si>
+    <t>Recusa</t>
+  </si>
+  <si>
+    <t>${causeOfDeath}=1</t>
+  </si>
+  <si>
+    <t>. &lt;= today()</t>
+  </si>
+  <si>
+    <t>Nome do individuo</t>
+  </si>
+  <si>
+    <t>Individual Name</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>DBSync</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -941,6 +953,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1627,18 +1642,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
@@ -1661,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1784,47 +1799,70 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="5" spans="1:18">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="5" t="b">
+      <c r="N6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -1835,19 +1873,19 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -1858,19 +1896,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
@@ -1881,13 +1919,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
@@ -1898,76 +1936,76 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>109</v>
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="4" t="b">
+      <c r="J11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>110</v>
+    <row r="12" spans="1:18" ht="42" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="4" t="b">
+      <c r="J12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24">
       <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1975,25 +2013,22 @@
       <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="24">
+    </row>
+    <row r="14" spans="1:18" ht="24" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2002,115 +2037,90 @@
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="24">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="4" t="b">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="24" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="4" t="b">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="36">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="L17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2119,29 +2129,28 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2151,7 +2160,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2160,8 +2169,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2170,8 +2180,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2180,8 +2191,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2190,9 +2202,8 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2203,46 +2214,23 @@
       <c r="H27" s="2"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="34" spans="10:10">
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="10:10">
-      <c r="J35" s="3"/>
-    </row>
-    <row r="43" spans="10:10">
-      <c r="J43" s="3"/>
+    <row r="31" spans="1:10">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" s="3"/>
@@ -2250,14 +2238,14 @@
     <row r="52" spans="10:10">
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="3"/>
+    <row r="69" spans="1:10">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10">
       <c r="J72" s="3"/>
@@ -2266,31 +2254,22 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10">
+      <c r="A74" s="3"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10">
+      <c r="A75" s="3"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10">
+      <c r="A76" s="3"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="3"/>
-      <c r="J78" s="3"/>
-    </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="3"/>
       <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="J80" s="3"/>
-    </row>
-    <row r="82" spans="10:10">
-      <c r="J82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2300,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B37" sqref="B37:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -2324,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>18</v>
@@ -2341,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2358,513 +2337,690 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>47</v>
+      <c r="B4" s="22">
+        <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>48</v>
+      <c r="B5" s="22">
+        <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>66</v>
+      <c r="B6" s="22">
+        <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>68</v>
+      <c r="B7" s="22">
+        <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>49</v>
+      <c r="B8" s="22">
+        <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="22">
+        <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>76</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B11" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B12" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20" t="s">
-        <v>95</v>
+      <c r="A22" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="17">
+        <v>3</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="17">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="17">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="17">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="17">
+        <v>7</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="17">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="17">
+        <v>10</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="17">
+        <v>11</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="17">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="17">
+        <v>3</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="17">
+        <v>4</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1">
+      <c r="A41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="17">
+        <v>5</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" s="15" customFormat="1">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="17">
+        <v>88</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="17">
+        <v>99</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15"/>
@@ -3019,6 +3175,13 @@
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3044,30 +3207,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
